--- a/biology/Botanique/Lily_May_Perry/Lily_May_Perry.xlsx
+++ b/biology/Botanique/Lily_May_Perry/Lily_May_Perry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lily May Perry (1895-1992) est une botaniste canado-américaine qui travaillait à l'Arboretum Arnold. Elle est surtout connue pour sa compilation détaillée sur les plantes médicinales d'Asie de l'Est et du Sud-Est et son ouvrage Flore de Nouvelle-Guinée. Perry est également la troisième femme scientifique ayant découvert et décrit le plus d'espèces végétales terrestres, avec un total de 414 espèces[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lily May Perry (1895-1992) est une botaniste canado-américaine qui travaillait à l'Arboretum Arnold. Elle est surtout connue pour sa compilation détaillée sur les plantes médicinales d'Asie de l'Est et du Sud-Est et son ouvrage Flore de Nouvelle-Guinée. Perry est également la troisième femme scientifique ayant découvert et décrit le plus d'espèces végétales terrestres, avec un total de 414 espèces.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Enfance et éducation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Perry est née à Havelock (Nouveau-Brunswick) le 5 janvier 1895. Elle a fait ses premières études dans une école à classe unique. Elle reçoit une formation d'enseignante à l'école normale provinciale de Fredericton. Après une courte période d'enseignement, elle fréquente l'Université Acadia et obtient en 1921 un BS en biologie avec mention. Elle a passé 3 ans supplémentaires à enseigner avant d'être admise au Radcliffe College, où elle a suivi les cours du Prof. EC Jeffries et ML Fernald et a reçu sa maîtrise en 1925. En 1930, elle a reçu une bourse d'études doctorales de JM Greenman à l'université Washington de Saint-Louis. Elle y a terminé sa thèse de doctorat sur les espèces nord-américaines de Verbena en 1933[2]. Elle est devenue citoyenne américaine en 1938[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Perry est née à Havelock (Nouveau-Brunswick) le 5 janvier 1895. Elle a fait ses premières études dans une école à classe unique. Elle reçoit une formation d'enseignante à l'école normale provinciale de Fredericton. Après une courte période d'enseignement, elle fréquente l'Université Acadia et obtient en 1921 un BS en biologie avec mention. Elle a passé 3 ans supplémentaires à enseigner avant d'être admise au Radcliffe College, où elle a suivi les cours du Prof. EC Jeffries et ML Fernald et a reçu sa maîtrise en 1925. En 1930, elle a reçu une bourse d'études doctorales de JM Greenman à l'université Washington de Saint-Louis. Elle y a terminé sa thèse de doctorat sur les espèces nord-américaines de Verbena en 1933. Elle est devenue citoyenne américaine en 1938.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'été 1929, elle passe un mois à collecter des spécimens de plantes sur l'île Saint-Paul (Nouvelle-Écosse) avec le Dr Muriel V.Roscoe, menant à la production d'une flore vasculaire de l'île publiée en 1931. Après avoir terminé son doctorat, elle a occupé des postes temporaires à l'Université de Géorgie et au Sweet Briar College. Après avoir été incapable de trouver un poste permanent au Canada, elle a été réembauchée par ML Fernald comme assistante pour l'herbier gris de Harvard[4]. En 1936, ED Merrill l'a transférée à l'Arnold Arboretum pour aider à organiser les collections de la Nouvelle-Guinée et d'autres parties du Pacifique. Perry a atteint l'âge de la retraite en 1960, mais est resté à l'Arnold Arboretum jusqu'en 1964 pour terminer son ouvrage Plantes médicinales d'Asie de l'Est et du Sud-Est : propriétés et utilisations attribuées[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'été 1929, elle passe un mois à collecter des spécimens de plantes sur l'île Saint-Paul (Nouvelle-Écosse) avec le Dr Muriel V.Roscoe, menant à la production d'une flore vasculaire de l'île publiée en 1931. Après avoir terminé son doctorat, elle a occupé des postes temporaires à l'Université de Géorgie et au Sweet Briar College. Après avoir été incapable de trouver un poste permanent au Canada, elle a été réembauchée par ML Fernald comme assistante pour l'herbier gris de Harvard. En 1936, ED Merrill l'a transférée à l'Arnold Arboretum pour aider à organiser les collections de la Nouvelle-Guinée et d'autres parties du Pacifique. Perry a atteint l'âge de la retraite en 1960, mais est resté à l'Arnold Arboretum jusqu'en 1964 pour terminer son ouvrage Plantes médicinales d'Asie de l'Est et du Sud-Est : propriétés et utilisations attribuées.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Titre honorifique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Docteur honoris causa de l'université Acadia, en 1971[3]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Docteur honoris causa de l'université Acadia, en 1971</t>
         </is>
       </c>
     </row>
@@ -603,7 +621,9 @@
           <t>Œuvres choisies</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Perry, Lily M. (1929), "A Tentative Revision Of Alchemilla § Lachemilla ", Contributions de l'Herbier Gris de l'Université de Harvard, 84 (84): 1, 3–57, JSTOR   41764062
 Perry, Lily M. (1933). Une révision des espèces nord-américaines de Verveine . "Annales du jardin botanique du Missouri." 20 (2): 239-362.
